--- a/submit/report/卒業研究/レイアウト案_まだ途中.xlsx
+++ b/submit/report/卒業研究/レイアウト案_まだ途中.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24302"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/646bae823cbee75c/ドキュメント/卒研/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="13_ncr:1_{C5EECA5B-67EF-42E9-8319-83536646024B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4944708C-ABC8-46E1-98E8-6707282085A4}"/>
+  <xr:revisionPtr revIDLastSave="190" documentId="13_ncr:1_{C5EECA5B-67EF-42E9-8319-83536646024B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42BC1556-7E82-42DB-A908-4B4CE83D22CD}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="1000" firstSheet="5" activeTab="5" xr2:uid="{FD8BBFF5-2D61-44E0-9E89-AA97EA9F9BA3}"/>
   </bookViews>
@@ -23127,7 +23127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2166668-F6DF-4C9E-A887-DC59F2208D59}">
   <dimension ref="B1:R31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="Q14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
@@ -24715,7 +24715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66139F4-7CDD-4200-A165-FB1B8346F1FB}">
   <dimension ref="B1:P24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
@@ -26169,7 +26169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE606F76-0413-4592-AEC2-4B126A7E1590}">
   <dimension ref="B1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="Y1" workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
